--- a/N 8429 BF KARIANTO.xlsx
+++ b/N 8429 BF KARIANTO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="30">
   <si>
     <t>No</t>
   </si>
@@ -633,7 +633,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1238,12 +1238,25 @@
       <c r="A28" s="3">
         <v>24</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="1">
+        <v>291919</v>
+      </c>
+      <c r="F28" s="1">
+        <f>E28+10000</f>
+        <v>301919</v>
+      </c>
+      <c r="G28" s="4">
+        <v>45538</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
